--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-280533.6627588379</v>
+        <v>-283461.8799571192</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858984</v>
+        <v>8656875.781858977</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>219.9860270676943</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>202.9231182632219</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>248.713700250579</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>23.59568114728116</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>269.0275088281772</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>133.5078934122521</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>177.2389031129445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>123.4514883688806</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>79.30363001464883</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>91.72166227029908</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>383.1826783285155</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>105.398017150502</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>16.77478458041857</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>167.6516704252982</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>165.6570697579672</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>26.73220612736586</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>9.464075951579003</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292652</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881762</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851122</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247769</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734103036</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004763</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>85.43746832366068</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>29.61866489279461</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292618</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247755</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734100478</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983817</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>186.5716787704332</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>154.9472586781294</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292618</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247755</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734100478</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>15.07437110675555</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>281.807827932447</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>131.7584887394952</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>217.9972384299657</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>134.452563354727</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>59.452825597604</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261737</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
@@ -3955,7 +3955,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
         <v>262.2383508445512</v>
@@ -3964,7 +3964,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,7 +4192,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
         <v>262.2383508445512</v>
@@ -4201,7 +4201,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1791.109440255352</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1644.355031464126</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1644.355031464126</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1258.566778865882</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>847.5808740762741</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>429.617065974461</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2042.335400104421</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1791.109440255352</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1791.109440255352</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.109440255352</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>456.3840257941342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V4" t="n">
-        <v>456.3840257941342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W4" t="n">
-        <v>456.3840257941342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>882.8926947117852</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>958.0510432088963</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>599.7853446021459</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>599.7853446021459</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>188.7994398125383</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1659.631866751719</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y5" t="n">
-        <v>1269.492534775907</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="6">
@@ -4653,13 +4653,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>325.5314024181542</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>178.6414549202439</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>178.6414549202439</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>648.0243074239609</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>393.339819218074</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>393.339819218074</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>393.339819218074</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.339819218074</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1739.654191907094</v>
+        <v>975.540838419158</v>
       </c>
       <c r="C8" t="n">
-        <v>1370.691674966682</v>
+        <v>975.540838419158</v>
       </c>
       <c r="D8" t="n">
-        <v>1012.425976359932</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>1012.425976359932</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520779</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907094</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.654191907094</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.654191907094</v>
+        <v>1362.14067848328</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150933</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942406</v>
+        <v>621.666340620069</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942406</v>
+        <v>621.666340620069</v>
       </c>
       <c r="U10" t="n">
-        <v>533.621179645333</v>
+        <v>621.666340620069</v>
       </c>
       <c r="V10" t="n">
-        <v>533.621179645333</v>
+        <v>621.666340620069</v>
       </c>
       <c r="W10" t="n">
-        <v>533.621179645333</v>
+        <v>621.666340620069</v>
       </c>
       <c r="X10" t="n">
-        <v>533.621179645333</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y10" t="n">
-        <v>533.621179645333</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5021,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5042,16 +5042,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2782.232616025903</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3329.011433084685</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5227,22 +5227,22 @@
         <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1697.167887220516</v>
       </c>
       <c r="U13" t="n">
-        <v>1577.410141987875</v>
+        <v>1697.167887220516</v>
       </c>
       <c r="V13" t="n">
-        <v>1410.079768494979</v>
+        <v>1442.483399014629</v>
       </c>
       <c r="W13" t="n">
-        <v>1120.662598458018</v>
+        <v>1153.066228977669</v>
       </c>
       <c r="X13" t="n">
-        <v>1120.662598458018</v>
+        <v>925.0766780796513</v>
       </c>
       <c r="Y13" t="n">
-        <v>1120.662598458018</v>
+        <v>704.2840989361212</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,10 +5261,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5358,10 +5358,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>754.0053234933665</v>
+        <v>972.7495048756253</v>
       </c>
       <c r="C16" t="n">
-        <v>585.0691405654596</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="D16" t="n">
-        <v>585.0691405654596</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E16" t="n">
-        <v>437.1560469830665</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F16" t="n">
-        <v>290.2660994851561</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>122.5632628598751</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>122.5632628598751</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5467,19 +5467,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W16" t="n">
-        <v>1163.643339221624</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="X16" t="n">
-        <v>935.6537883236062</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="Y16" t="n">
-        <v>935.6537883236062</v>
+        <v>1154.397969705865</v>
       </c>
     </row>
     <row r="17">
@@ -5492,55 +5492,55 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551628</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277716</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563069</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811476</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483398</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542177</v>
       </c>
       <c r="O17" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232737</v>
       </c>
       <c r="P17" t="n">
-        <v>4338.827767043611</v>
+        <v>4195.497197679681</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331038</v>
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.59277249732</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216193</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494863</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468567</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390236</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193695</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320332</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454347</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.0000320088</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426853</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902954</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5631,7 +5631,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>655.3925893356336</v>
+        <v>855.6340846510828</v>
       </c>
       <c r="C19" t="n">
-        <v>655.3925893356336</v>
+        <v>686.697901723176</v>
       </c>
       <c r="D19" t="n">
-        <v>655.3925893356336</v>
+        <v>536.5812623108402</v>
       </c>
       <c r="E19" t="n">
-        <v>507.4794957532405</v>
+        <v>388.6681687284471</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553301</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953295</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442082</v>
+        <v>344.6708498442051</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927042</v>
+        <v>661.2306482927004</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892253</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598118</v>
+        <v>1346.796070598112</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518531</v>
+        <v>1646.125669518525</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952191</v>
+        <v>1878.733169952183</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104706</v>
+        <v>1956.343466104697</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104706</v>
+        <v>1866.513008862225</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104706</v>
+        <v>1866.513008862225</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674232</v>
+        <v>1866.513008862225</v>
       </c>
       <c r="U19" t="n">
-        <v>1648.276377620029</v>
+        <v>1577.410141987868</v>
       </c>
       <c r="V19" t="n">
-        <v>1393.591889414142</v>
+        <v>1547.492298661813</v>
       </c>
       <c r="W19" t="n">
-        <v>1104.174719377181</v>
+        <v>1258.075128624853</v>
       </c>
       <c r="X19" t="n">
-        <v>876.1851684791637</v>
+        <v>1258.075128624853</v>
       </c>
       <c r="Y19" t="n">
-        <v>655.3925893356336</v>
+        <v>1037.282549481323</v>
       </c>
     </row>
     <row r="20">
@@ -5729,46 +5729,46 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277724</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563071</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1557.603359811479</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483402</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542183</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232734</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5814,37 +5814,37 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390114</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919358</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320284</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454343</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008797</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426851</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902953</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>825.859557377715</v>
+        <v>654.7198286198656</v>
       </c>
       <c r="C22" t="n">
-        <v>656.9233744498081</v>
+        <v>654.7198286198656</v>
       </c>
       <c r="D22" t="n">
-        <v>506.8067350374723</v>
+        <v>654.7198286198656</v>
       </c>
       <c r="E22" t="n">
-        <v>506.8067350374723</v>
+        <v>506.8067350374724</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>506.8067350374724</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>339.1038984121914</v>
       </c>
       <c r="H22" t="n">
         <v>192.8867116300491</v>
@@ -5908,52 +5908,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442058</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927015</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518527</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952186</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931527</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431758</v>
+        <v>1764.657581931527</v>
       </c>
       <c r="U22" t="n">
-        <v>1644.746393431758</v>
+        <v>1475.554715057171</v>
       </c>
       <c r="V22" t="n">
-        <v>1456.290152249502</v>
+        <v>1220.870226851284</v>
       </c>
       <c r="W22" t="n">
-        <v>1456.290152249502</v>
+        <v>1220.870226851284</v>
       </c>
       <c r="X22" t="n">
-        <v>1228.300601351485</v>
+        <v>992.8806759532663</v>
       </c>
       <c r="Y22" t="n">
-        <v>1007.508022207955</v>
+        <v>836.3682934501053</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277724</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563071</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1557.603359811479</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483402</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353398</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232734</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6051,37 +6051,37 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390114</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.502502919358</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320226</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454338</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008791</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426845</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902953</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>974.4454116758762</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C25" t="n">
-        <v>805.5092287479694</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D25" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442058</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927015</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518527</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952186</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931527</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501053</v>
       </c>
       <c r="U25" t="n">
-        <v>1449.922479025293</v>
+        <v>1253.788099626696</v>
       </c>
       <c r="V25" t="n">
-        <v>1195.237990819406</v>
+        <v>999.1036114208094</v>
       </c>
       <c r="W25" t="n">
-        <v>1195.237990819406</v>
+        <v>709.6864413838489</v>
       </c>
       <c r="X25" t="n">
-        <v>1195.237990819406</v>
+        <v>481.6968904858315</v>
       </c>
       <c r="Y25" t="n">
-        <v>974.4454116758762</v>
+        <v>260.9043113423014</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>702.4944101284095</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>533.5582272005026</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>383.4415877881669</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.342175037157</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1332.925005000197</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1104.935454102179</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>884.1428749586493</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6962,7 +6962,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,19 +7254,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>153.8700222374709</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,10 +7488,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
         <v>776.1751066403293</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,7 +7567,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
         <v>483.825546038073</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
         <v>2319.799627685893</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797186</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7843,10 +7843,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8699,10 +8699,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>246.454569480845</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836477018</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>67.53663776704306</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476912</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>344.7025836476909</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>79.39433597866729</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>100.527268466834</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314406</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>51.89727885087095</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>86.48057356586085</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.62021428247223</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520929</v>
+        <v>209.1205774005158</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983829</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>200.7743698819522</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>222.5189784310334</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004746</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>65.56596455339479</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>63.63739467396542</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>164.7576090751818</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983817</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004746</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>4.404010273165909</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>120.3791545843328</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>151.7319110345171</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>45.8481303472993</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>21.81301072096154</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-9.541256801314353e-13</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1159058.251899557</v>
+        <v>1159058.251899558</v>
       </c>
     </row>
     <row r="3">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274263.2212881113</v>
+        <v>274263.2212881115</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524996</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="E2" t="n">
         <v>277957.2508208881</v>
       </c>
       <c r="F2" t="n">
+        <v>277957.2508208882</v>
+      </c>
+      <c r="G2" t="n">
+        <v>277957.250820888</v>
+      </c>
+      <c r="H2" t="n">
+        <v>277957.2508208884</v>
+      </c>
+      <c r="I2" t="n">
         <v>277957.2508208881</v>
       </c>
-      <c r="G2" t="n">
-        <v>277957.2508208882</v>
-      </c>
-      <c r="H2" t="n">
-        <v>277957.2508208882</v>
-      </c>
-      <c r="I2" t="n">
-        <v>277957.2508208882</v>
-      </c>
       <c r="J2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
         <v>282501.3098915021</v>
@@ -26347,13 +26347,13 @@
         <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="O2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>727377.4139934066</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-1.161814562122648e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.566914534123498e-09</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735916</v>
+        <v>376527.1335735926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179699.2295958967</v>
+        <v>179699.229595897</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26427,16 +26427,16 @@
         <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499406</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499392</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499391</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
@@ -26445,19 +26445,19 @@
         <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670465</v>
+        <v>5067.592601670436</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.45186476393</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476392</v>
       </c>
     </row>
     <row r="5">
@@ -26482,13 +26482,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371358</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371361</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371361</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-578262.9655857395</v>
+        <v>-578356.5470011993</v>
       </c>
       <c r="C6" t="n">
-        <v>3441.035461358522</v>
+        <v>3441.035461358464</v>
       </c>
       <c r="D6" t="n">
-        <v>3441.035461358551</v>
+        <v>3441.035461358289</v>
       </c>
       <c r="E6" t="n">
-        <v>-570894.4051012259</v>
+        <v>-570961.6005914517</v>
       </c>
       <c r="F6" t="n">
-        <v>156483.0088921807</v>
+        <v>156415.8134019549</v>
       </c>
       <c r="G6" t="n">
-        <v>156483.0088921807</v>
+        <v>156415.8134019574</v>
       </c>
       <c r="H6" t="n">
-        <v>156483.0088921807</v>
+        <v>156415.8134019535</v>
       </c>
       <c r="I6" t="n">
-        <v>156483.0088921807</v>
+        <v>156415.8134019548</v>
       </c>
       <c r="J6" t="n">
-        <v>-200215.9461076669</v>
+        <v>-200250.6840331037</v>
       </c>
       <c r="K6" t="n">
-        <v>176311.1874659248</v>
+        <v>176276.4495404889</v>
       </c>
       <c r="L6" t="n">
-        <v>176311.1874659247</v>
+        <v>176276.4495404889</v>
       </c>
       <c r="M6" t="n">
-        <v>46668.87262697976</v>
+        <v>46634.13470154413</v>
       </c>
       <c r="N6" t="n">
-        <v>176311.1874659247</v>
+        <v>176276.4495404889</v>
       </c>
       <c r="O6" t="n">
         <v>151714.3337401882</v>
       </c>
       <c r="P6" t="n">
-        <v>171142.0517338201</v>
+        <v>171142.0517338199</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170869</v>
@@ -26750,13 +26750,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593295</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>712.0330363762114</v>
@@ -26972,16 +26972,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.190495135973916e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748377</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>24.5424097179956</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>124.829140206913</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>125.0197918709312</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>17.25436541380054</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>280.2762766085428</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>192.4921975655245</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>32.71940047291451</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>206.9782442273289</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>262.9613793503839</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>23.69336741319597</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>106.7475217995169</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>269.5070896615592</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681583</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844653</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974794</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953976</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003791</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362317</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574969</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990094997</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099035</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746392</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781674</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806918</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451114</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345266</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502559</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798524</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752231</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026558</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353145</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138779</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233455</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837904</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970232</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002912</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987477</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905536</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238302</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898467</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046221</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430531</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311873</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451741999</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297385</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702017</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.167346909881</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316422</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883105</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085992</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802161</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895875</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712186</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553025</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112267</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780291</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681592</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844661</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974797</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953983</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003801</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623184</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574983</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095012</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099048</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746404</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781683</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563565</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806937</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451118</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345272</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502563</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798528</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752245</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353151</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138847</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233466</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837916</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970242</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002921</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987482</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905539</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.5396634623831</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898485</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430535</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311877</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174201</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297388</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702021</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098816</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316428</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.724773788311</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085997</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802166</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895878</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712203</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553031</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112283</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681592</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844661</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974797</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953983</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003801</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623184</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574983</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095012</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099048</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746404</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781683</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563565</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806937</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451118</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345272</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502563</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798528</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752245</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353151</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233466</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837916</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970242</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002979</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987482</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905539</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.5396634623831</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898485</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430535</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311877</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174201</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297388</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702021</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098816</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316428</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.724773788311</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085997</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802166</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895878</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712203</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553031</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112283</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33278,7 +33278,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>391.925066926462</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,28 +33734,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33974,10 +33974,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031299</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
@@ -35419,10 +35419,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>754.5075703690641</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407851</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265633</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923298</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302242</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129088</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359185</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908524</v>
       </c>
       <c r="Q17" t="n">
-        <v>318.3309425707625</v>
+        <v>463.1092954636226</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152063</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453598908</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609555</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340037</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013271</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004572</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525787</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985961</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306577</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443214</v>
+        <v>206.0476595443188</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701972</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934828</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.856946167539</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226389</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451096</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789312</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407858</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265643</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923311</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302256</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129103</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359093</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908535</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636235</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152068</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597679</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609562</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340106</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013283</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004583</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525798</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859618</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127267</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306603</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443192</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701978</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934834</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675396</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226394</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451101</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.3942385378934</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407858</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265643</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923311</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302256</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>897.0044190606012</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882181</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908535</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636235</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152068</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597679</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609562</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013283</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004583</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525798</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859677</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127267</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306603</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443192</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701978</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934834</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675396</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226394</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451101</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.3942385378934</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37947,10 +37947,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
@@ -38184,10 +38184,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
